--- a/data/trans_orig/P6703-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>4465</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1215</v>
+        <v>1375</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10836</v>
+        <v>10753</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02439737224205397</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006641147138603466</v>
+        <v>0.007512579628185042</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05920833257812605</v>
+        <v>0.05875233793781635</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -764,19 +764,19 @@
         <v>10566</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5416</v>
+        <v>4879</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19340</v>
+        <v>19088</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07704546477888274</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03948967990338909</v>
+        <v>0.03557979801274828</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1410222612288253</v>
+        <v>0.1391866366615364</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -785,19 +785,19 @@
         <v>15031</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8374</v>
+        <v>8090</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25902</v>
+        <v>24490</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04694916439749362</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02615585023260562</v>
+        <v>0.0252693150061191</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0809028419465995</v>
+        <v>0.07649227822728684</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>3859</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1010</v>
+        <v>1026</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9034</v>
+        <v>9164</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02108653302009315</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00552024079772032</v>
+        <v>0.005605979729995314</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04936264978532422</v>
+        <v>0.05007214741232383</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -835,19 +835,19 @@
         <v>8715</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4206</v>
+        <v>4303</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16004</v>
+        <v>16395</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06354501816131038</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03066814628178598</v>
+        <v>0.03137975461732783</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.116699837698576</v>
+        <v>0.1195534954920418</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -856,19 +856,19 @@
         <v>12574</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7082</v>
+        <v>6933</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21387</v>
+        <v>21354</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03927361038609165</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02212009975761834</v>
+        <v>0.02165519159549459</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0668014732447331</v>
+        <v>0.06669734443365481</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>38528</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27604</v>
+        <v>28273</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49666</v>
+        <v>50010</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.210513701322767</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.150827170795017</v>
+        <v>0.1544818712555262</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2713740398494327</v>
+        <v>0.2732522676190726</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -906,19 +906,19 @@
         <v>17584</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10314</v>
+        <v>10688</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25894</v>
+        <v>26891</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1282182507070986</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07520958691804992</v>
+        <v>0.07793472486341266</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.18881213246087</v>
+        <v>0.1960849249833015</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -927,19 +927,19 @@
         <v>56112</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43471</v>
+        <v>43261</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>71123</v>
+        <v>70030</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1752624736296736</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1357804865791123</v>
+        <v>0.1351226882768576</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2221508419804601</v>
+        <v>0.2187358438001996</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>48118</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37035</v>
+        <v>35974</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61307</v>
+        <v>60859</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2629149629140259</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2023583139828483</v>
+        <v>0.1965624532985622</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3349784651900552</v>
+        <v>0.3325279766049121</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -977,19 +977,19 @@
         <v>28159</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19603</v>
+        <v>18461</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37947</v>
+        <v>38498</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2053301214336766</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.142942585600872</v>
+        <v>0.134613828704943</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2767067178392235</v>
+        <v>0.2807252091852152</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -998,19 +998,19 @@
         <v>76277</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61066</v>
+        <v>60882</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92666</v>
+        <v>92827</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2382485160629773</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.190736645401483</v>
+        <v>0.1901621068016338</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2894391693012101</v>
+        <v>0.2899419237425928</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>88048</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>74088</v>
+        <v>74987</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>100720</v>
+        <v>102442</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.48108743050106</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.404811058383033</v>
+        <v>0.4097246986956921</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5503264426994207</v>
+        <v>0.5597396315159582</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>66</v>
@@ -1048,19 +1048,19 @@
         <v>72116</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>60680</v>
+        <v>60629</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>84530</v>
+        <v>83697</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5258611449190317</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4424712130663901</v>
+        <v>0.4420965468436</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6163807561665836</v>
+        <v>0.6103093687468948</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>152</v>
@@ -1069,19 +1069,19 @@
         <v>160164</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>143057</v>
+        <v>143179</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>177242</v>
+        <v>179749</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5002662355237638</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4468328967262162</v>
+        <v>0.44721498058157</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5536086424992711</v>
+        <v>0.5614390018132773</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>14860</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9016</v>
+        <v>8744</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24593</v>
+        <v>24349</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01626640902804162</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009869613350553679</v>
+        <v>0.00957106285627719</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02692068989774278</v>
+        <v>0.02665362455089878</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1194,19 +1194,19 @@
         <v>16364</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9622</v>
+        <v>9097</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26601</v>
+        <v>26663</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02856584029916754</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0167971938614451</v>
+        <v>0.01588070703737388</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04643651714623278</v>
+        <v>0.04654526053156548</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -1215,19 +1215,19 @@
         <v>31224</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22014</v>
+        <v>21042</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44108</v>
+        <v>43836</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02100648868159775</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0148105439994297</v>
+        <v>0.01415656176650722</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0296746361517467</v>
+        <v>0.02949160017900057</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>21330</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13684</v>
+        <v>13009</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32484</v>
+        <v>33173</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02334887428225686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01497918594677825</v>
+        <v>0.01423969476773096</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03555774236210878</v>
+        <v>0.03631202707714162</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1265,19 +1265,19 @@
         <v>16692</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9589</v>
+        <v>9278</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25969</v>
+        <v>26079</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02913940406441988</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01673896006365807</v>
+        <v>0.01619613403204506</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04533442454605473</v>
+        <v>0.04552593747096197</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>36</v>
@@ -1286,19 +1286,19 @@
         <v>38022</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>27687</v>
+        <v>27013</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>53410</v>
+        <v>51467</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02558048741937626</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01862734387329243</v>
+        <v>0.01817333211652205</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03593283742977964</v>
+        <v>0.03462602040007447</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>167569</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>144114</v>
+        <v>143175</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>189947</v>
+        <v>192592</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1834273754730716</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1577526390467488</v>
+        <v>0.1567249206110544</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2079234745933681</v>
+        <v>0.210818841428803</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>96</v>
@@ -1336,19 +1336,19 @@
         <v>104262</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>86824</v>
+        <v>86539</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>122225</v>
+        <v>124624</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1820101143942698</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1515684827913253</v>
+        <v>0.1510700803082171</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2133686567549687</v>
+        <v>0.2175558476262029</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>260</v>
@@ -1357,19 +1357,19 @@
         <v>271831</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>240730</v>
+        <v>241199</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>299313</v>
+        <v>302264</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1828811770143529</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1619567443837508</v>
+        <v>0.162272426000393</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.201369875871635</v>
+        <v>0.2033553666471993</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>270112</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>243715</v>
+        <v>237077</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>298277</v>
+        <v>298212</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2956744893606056</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2667791056941204</v>
+        <v>0.2595128177586187</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3265046918155421</v>
+        <v>0.3264341192357483</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>167</v>
@@ -1407,19 +1407,19 @@
         <v>181458</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>158960</v>
+        <v>160397</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>204418</v>
+        <v>207286</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3167708980663818</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2774955058270149</v>
+        <v>0.2800054182592711</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3568515142449589</v>
+        <v>0.3618591147362563</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>429</v>
@@ -1428,19 +1428,19 @@
         <v>451570</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>415672</v>
+        <v>414213</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>486156</v>
+        <v>488622</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3038048374608556</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2796533445555293</v>
+        <v>0.278671690752336</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3270733952091736</v>
+        <v>0.3287327654265905</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>439674</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>409171</v>
+        <v>405551</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>468202</v>
+        <v>470343</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4812828518560244</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4478940657441825</v>
+        <v>0.4439314609087026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5125116528096678</v>
+        <v>0.5148543868269408</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>241</v>
@@ -1478,19 +1478,19 @@
         <v>254061</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>230885</v>
+        <v>228323</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>279909</v>
+        <v>278701</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.443513743175761</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4030544614429538</v>
+        <v>0.3985828320046831</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4886359019909531</v>
+        <v>0.486527306373958</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>645</v>
@@ -1499,19 +1499,19 @@
         <v>693735</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>655623</v>
+        <v>655544</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>737086</v>
+        <v>734960</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4667270094238175</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.441086464647372</v>
+        <v>0.4410334271159878</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4958924334281354</v>
+        <v>0.4944626393460322</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>8744</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4037</v>
+        <v>3977</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16939</v>
+        <v>17461</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02746614028873981</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01268277987245283</v>
+        <v>0.01249280179159494</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05320844857908123</v>
+        <v>0.05484969237785212</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10211</v>
+        <v>8793</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01266146783541448</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04347005425279141</v>
+        <v>0.03743408206869454</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1645,19 +1645,19 @@
         <v>11718</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5661</v>
+        <v>5817</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21748</v>
+        <v>21559</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0211803095947919</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01023236414931049</v>
+        <v>0.01051500489365544</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03931014589056296</v>
+        <v>0.03896936982461854</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>9495</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4407</v>
+        <v>4094</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18893</v>
+        <v>18375</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02982479645736813</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01384203693180564</v>
+        <v>0.01285960261478437</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05934855815906299</v>
+        <v>0.05772006612263069</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1695,19 +1695,19 @@
         <v>7386</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3045</v>
+        <v>3093</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14723</v>
+        <v>13822</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03144236455140952</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0129644959037951</v>
+        <v>0.01316616440457003</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06267982638163741</v>
+        <v>0.05884327459046833</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1716,19 +1716,19 @@
         <v>16880</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9534</v>
+        <v>9794</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27940</v>
+        <v>28633</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03051159038726642</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01723233970778879</v>
+        <v>0.01770351023374236</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05050308036204147</v>
+        <v>0.05175532455526532</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>61594</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47662</v>
+        <v>48100</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>78980</v>
+        <v>77025</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1934846293108835</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1497202990331312</v>
+        <v>0.1510954789304544</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.248096010542663</v>
+        <v>0.2419553566488853</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>47</v>
@@ -1766,19 +1766,19 @@
         <v>50783</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38967</v>
+        <v>39139</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63868</v>
+        <v>65853</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2161937219598501</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1658902295920145</v>
+        <v>0.1666200506923125</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2718964060018605</v>
+        <v>0.2803477746888671</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>103</v>
@@ -1787,19 +1787,19 @@
         <v>112378</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>93269</v>
+        <v>93376</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>133374</v>
+        <v>134842</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2031265522953072</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1685868157355545</v>
+        <v>0.1687802451056492</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.241077870626234</v>
+        <v>0.2437322023252202</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>105751</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>87657</v>
+        <v>87382</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>122843</v>
+        <v>123364</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3321905882155083</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2753524222293375</v>
+        <v>0.2744906479856508</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3858820996617405</v>
+        <v>0.3875202599839209</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -1837,19 +1837,19 @@
         <v>68583</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53383</v>
+        <v>54869</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84118</v>
+        <v>84489</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2919686232154723</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2272594136472467</v>
+        <v>0.2335860681114248</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3581039243441909</v>
+        <v>0.3596851832470434</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>155</v>
@@ -1858,19 +1858,19 @@
         <v>174333</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>153702</v>
+        <v>150599</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>200365</v>
+        <v>199099</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3151129755249731</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2778220170164953</v>
+        <v>0.2722129000616385</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3621670914104125</v>
+        <v>0.3598779308035916</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>132760</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>114675</v>
+        <v>115101</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>151984</v>
+        <v>152715</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4170338457275002</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3602260921183081</v>
+        <v>0.3615639729983431</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4774226989366824</v>
+        <v>0.4797191958805014</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>95</v>
@@ -1908,19 +1908,19 @@
         <v>105171</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>87945</v>
+        <v>89152</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>120979</v>
+        <v>120186</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4477338224378536</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3743987786878609</v>
+        <v>0.3795358471648877</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5150296877176419</v>
+        <v>0.5116533591614261</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>214</v>
@@ -1929,19 +1929,19 @@
         <v>237931</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>213369</v>
+        <v>215140</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>262929</v>
+        <v>265212</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4300685721976614</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3856723127660324</v>
+        <v>0.3888729713069833</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4752526007723649</v>
+        <v>0.479379237135143</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>28069</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18520</v>
+        <v>18892</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40086</v>
+        <v>40368</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01983800241775636</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01308929297902091</v>
+        <v>0.01335193605910915</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02833130309599679</v>
+        <v>0.02853022727153873</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -2054,19 +2054,19 @@
         <v>29904</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20292</v>
+        <v>19253</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44126</v>
+        <v>42498</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03164834953309074</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02147545958602914</v>
+        <v>0.02037652291250413</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04670093594574478</v>
+        <v>0.04497784478612254</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>53</v>
@@ -2075,19 +2075,19 @@
         <v>57973</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>43513</v>
+        <v>43758</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74969</v>
+        <v>75750</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02456695354613382</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01843960385403999</v>
+        <v>0.01854317044269864</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03176944276553592</v>
+        <v>0.03210039232248624</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>34684</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>24435</v>
+        <v>24568</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>48608</v>
+        <v>48592</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02451327234930487</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01726988860109448</v>
+        <v>0.01736337331463996</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03435390874818586</v>
+        <v>0.03434305117771256</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -2125,19 +2125,19 @@
         <v>32792</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23884</v>
+        <v>21925</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>47799</v>
+        <v>44532</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03470557337121667</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02527787928687217</v>
+        <v>0.02320403259319897</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05058748521983719</v>
+        <v>0.04712976193160431</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>63</v>
@@ -2146,19 +2146,19 @@
         <v>67476</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>52427</v>
+        <v>52117</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>85884</v>
+        <v>85307</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02859434574601747</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02221694025033769</v>
+        <v>0.02208546576654586</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03639485923170709</v>
+        <v>0.03615048495995424</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>267691</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>238804</v>
+        <v>239763</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>299760</v>
+        <v>300320</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1891937984328778</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1687775035305784</v>
+        <v>0.1694552474123286</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2118587693491104</v>
+        <v>0.2122546166154652</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>160</v>
@@ -2196,19 +2196,19 @@
         <v>172629</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>148242</v>
+        <v>150461</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>198336</v>
+        <v>199613</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1827008285491486</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1568912313949988</v>
+        <v>0.1592397266359878</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2099071040645253</v>
+        <v>0.211258806634929</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>417</v>
@@ -2217,19 +2217,19 @@
         <v>440321</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>402413</v>
+        <v>402458</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>481698</v>
+        <v>483575</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1865939648328717</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1705298425000479</v>
+        <v>0.1705488347686313</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2041284186660778</v>
+        <v>0.2049236506432266</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>423981</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>387602</v>
+        <v>390354</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>458443</v>
+        <v>459303</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2996528795897581</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2739415308147562</v>
+        <v>0.2758867366609716</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3240097412749359</v>
+        <v>0.3246176609903577</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>253</v>
@@ -2267,19 +2267,19 @@
         <v>278199</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>245449</v>
+        <v>250673</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>306849</v>
+        <v>310194</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2944304398263471</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2597694288835413</v>
+        <v>0.2652985788787067</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3247514884455716</v>
+        <v>0.3282918542721126</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>655</v>
@@ -2288,19 +2288,19 @@
         <v>702180</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>658739</v>
+        <v>655328</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>750743</v>
+        <v>746534</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2975617757321924</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2791528536151633</v>
+        <v>0.277707544813097</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3181412255032489</v>
+        <v>0.3163576296041492</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>660481</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>621811</v>
+        <v>619920</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>700911</v>
+        <v>700715</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4668020472103028</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4394713889007948</v>
+        <v>0.4381354467064013</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4953762542204584</v>
+        <v>0.4952375534026535</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>402</v>
@@ -2338,19 +2338,19 @@
         <v>431349</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>395340</v>
+        <v>400684</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>463203</v>
+        <v>464191</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4565148087201968</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4184058204342659</v>
+        <v>0.4240608469485879</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4902276661459848</v>
+        <v>0.4912729062761818</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1011</v>
@@ -2359,19 +2359,19 @@
         <v>1091830</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1038302</v>
+        <v>1043781</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1139310</v>
+        <v>1142285</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4626829601427846</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4399995993898401</v>
+        <v>0.4423216013983154</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4828035467241665</v>
+        <v>0.4840644734232007</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>6315</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2137</v>
+        <v>2837</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13093</v>
+        <v>13256</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04469203436227445</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01512667846646445</v>
+        <v>0.02008077573610901</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09266129678894627</v>
+        <v>0.09381534845135092</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6362</v>
+        <v>7212</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02801994265283705</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09202883269249305</v>
+        <v>0.1043234476216017</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -2744,19 +2744,19 @@
         <v>8252</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3970</v>
+        <v>3971</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15159</v>
+        <v>16992</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03921501547164666</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0188684253986839</v>
+        <v>0.01887221554514177</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0720393416787042</v>
+        <v>0.08075141487392497</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>12560</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7256</v>
+        <v>7062</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20692</v>
+        <v>20747</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08888907291357838</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05135044716586218</v>
+        <v>0.04997820173448344</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1464421598358997</v>
+        <v>0.1468321366382095</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -2794,19 +2794,19 @@
         <v>3132</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7950</v>
+        <v>8404</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04530187112361788</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01276088562872505</v>
+        <v>0.01262553629397703</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1150080931671415</v>
+        <v>0.1215727716421126</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -2815,19 +2815,19 @@
         <v>15692</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9195</v>
+        <v>9053</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24301</v>
+        <v>25859</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07457005813404205</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04369562170727769</v>
+        <v>0.04302325592582133</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1154838560667201</v>
+        <v>0.1228888853365599</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>32223</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22830</v>
+        <v>22916</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42797</v>
+        <v>42451</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2280502536017381</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1615746605062482</v>
+        <v>0.1621805175358306</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3028830397103772</v>
+        <v>0.3004304061170387</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -2865,19 +2865,19 @@
         <v>13816</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8627</v>
+        <v>7869</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21541</v>
+        <v>20965</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1998680583889872</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.124800821784524</v>
+        <v>0.1138373856849704</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3116087913544881</v>
+        <v>0.3032759210119853</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -2886,19 +2886,19 @@
         <v>46040</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>35388</v>
+        <v>35132</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>60429</v>
+        <v>58845</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2187920022527353</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.168174212706924</v>
+        <v>0.1669549452045707</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2871742340542875</v>
+        <v>0.2796444609680823</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>37409</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26783</v>
+        <v>27632</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48614</v>
+        <v>47863</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2647511853585473</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1895502005815892</v>
+        <v>0.1955581820404307</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3440539655255149</v>
+        <v>0.3387388039092226</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -2936,19 +2936,19 @@
         <v>21629</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14590</v>
+        <v>14003</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30010</v>
+        <v>29857</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3128846821765963</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2110646933270516</v>
+        <v>0.2025667855730748</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4341207671465592</v>
+        <v>0.4319084419175535</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -2957,19 +2957,19 @@
         <v>59038</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46683</v>
+        <v>45840</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73200</v>
+        <v>72751</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2805637226177562</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2218470808964079</v>
+        <v>0.2178416162411047</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.347861983034973</v>
+        <v>0.3457324582307563</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>52792</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42254</v>
+        <v>42221</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>65897</v>
+        <v>65906</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3736174537638618</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2990405645851986</v>
+        <v>0.2988038161285797</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4663659056137723</v>
+        <v>0.4664304950782989</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -3007,19 +3007,19 @@
         <v>28614</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20557</v>
+        <v>20544</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37842</v>
+        <v>36808</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4139254456579616</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2973823560641466</v>
+        <v>0.2971864540836239</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5474182519690604</v>
+        <v>0.5324563718619766</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>77</v>
@@ -3028,19 +3028,19 @@
         <v>81406</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>66483</v>
+        <v>67464</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>94859</v>
+        <v>97030</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3868592015238198</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3159440961606114</v>
+        <v>0.3206034948359885</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4507938100546849</v>
+        <v>0.4611109045094394</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>27222</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18306</v>
+        <v>18044</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39800</v>
+        <v>39717</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02948614196952937</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0198286427312228</v>
+        <v>0.01954490086791675</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04311140921621142</v>
+        <v>0.04302109977394381</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -3153,19 +3153,19 @@
         <v>26689</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17546</v>
+        <v>17994</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38328</v>
+        <v>38323</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04102574936913567</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02697105701640659</v>
+        <v>0.02765989471345593</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05891682381910533</v>
+        <v>0.05890854712867757</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -3174,19 +3174,19 @@
         <v>53911</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42021</v>
+        <v>40864</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70636</v>
+        <v>70917</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03425630321207274</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02670096117539566</v>
+        <v>0.02596597120085229</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04488421013732065</v>
+        <v>0.04506226590243655</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>40878</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29315</v>
+        <v>29744</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54473</v>
+        <v>54427</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04427872154500982</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03175387862244707</v>
+        <v>0.03221793612412661</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05900486503456048</v>
+        <v>0.05895480955838023</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -3224,19 +3224,19 @@
         <v>39627</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29226</v>
+        <v>29318</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53924</v>
+        <v>54762</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06091312046669544</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04492555737372395</v>
+        <v>0.04506772361117928</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0828907152109999</v>
+        <v>0.08417858494098857</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>78</v>
@@ -3245,19 +3245,19 @@
         <v>80505</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>64430</v>
+        <v>65580</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>100251</v>
+        <v>102998</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0511549316517711</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04094047001811947</v>
+        <v>0.04167105151439172</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06370223251471116</v>
+        <v>0.06544771021738993</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>174981</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>151378</v>
+        <v>153896</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>201087</v>
+        <v>202420</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1895373803691635</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1639708553929952</v>
+        <v>0.1666986937458977</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2178153849003244</v>
+        <v>0.2192583764873501</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>103</v>
@@ -3295,19 +3295,19 @@
         <v>105160</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>85800</v>
+        <v>87454</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>124365</v>
+        <v>127970</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1616488436009599</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1318905347264266</v>
+        <v>0.1344328014625393</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1911716604759374</v>
+        <v>0.1967128958130315</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>269</v>
@@ -3316,19 +3316,19 @@
         <v>280141</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>252926</v>
+        <v>250884</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>310868</v>
+        <v>311652</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1780090144034834</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1607161667759791</v>
+        <v>0.1594183956905451</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1975339394176667</v>
+        <v>0.1980323065930984</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>307102</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>280203</v>
+        <v>278837</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>340167</v>
+        <v>336665</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3326488842930616</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3035128620292956</v>
+        <v>0.30203253178824</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3684650808378327</v>
+        <v>0.3646713395114318</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>194</v>
@@ -3366,19 +3366,19 @@
         <v>196369</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>172602</v>
+        <v>174739</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>221067</v>
+        <v>221103</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3018536510034359</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2653200189299663</v>
+        <v>0.2686052415356827</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3398184559547992</v>
+        <v>0.3398738591344959</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>485</v>
@@ -3387,19 +3387,19 @@
         <v>503471</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>467049</v>
+        <v>467666</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>539638</v>
+        <v>539029</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3199189686896707</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2967752373533574</v>
+        <v>0.2971673308001751</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3429006160752013</v>
+        <v>0.3425138059058838</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>373018</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342091</v>
+        <v>345209</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>406481</v>
+        <v>405872</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4040488718232357</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3705486822640979</v>
+        <v>0.3739266829231083</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4402949416380671</v>
+        <v>0.4396353626713156</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>273</v>
@@ -3437,19 +3437,19 @@
         <v>282699</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>257947</v>
+        <v>257677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>306915</v>
+        <v>307358</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4345586355597731</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3965107337960456</v>
+        <v>0.3960951203010252</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4717826669248695</v>
+        <v>0.472464072494634</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>615</v>
@@ -3458,19 +3458,19 @@
         <v>655718</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>616480</v>
+        <v>614500</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>697141</v>
+        <v>696076</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4166607820430021</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3917279852413671</v>
+        <v>0.3904697154209822</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4429820174673729</v>
+        <v>0.4423056743605656</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>7363</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2853</v>
+        <v>3001</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14455</v>
+        <v>14740</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02113117490091487</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008187389253523712</v>
+        <v>0.0086123629080961</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04148462102677078</v>
+        <v>0.0423040019305785</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -3583,19 +3583,19 @@
         <v>8130</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3843</v>
+        <v>3949</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16097</v>
+        <v>16049</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02635620042306937</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0124574195669874</v>
+        <v>0.0128010091335224</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05218643084597548</v>
+        <v>0.05202962723105479</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -3604,19 +3604,19 @@
         <v>15493</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8909</v>
+        <v>8351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25124</v>
+        <v>24250</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02358466439390836</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01356229872569216</v>
+        <v>0.01271322085585767</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03824640023466714</v>
+        <v>0.03691684057678513</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>20963</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12812</v>
+        <v>12631</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31843</v>
+        <v>32572</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06016405110677958</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.036770371179105</v>
+        <v>0.03625137898163167</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09138710947426575</v>
+        <v>0.09347899153775638</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -3654,19 +3654,19 @@
         <v>15765</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9039</v>
+        <v>9671</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25283</v>
+        <v>25390</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0511106062921614</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02930573352185233</v>
+        <v>0.03135203830570005</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08196668377698794</v>
+        <v>0.08231247726977857</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>34</v>
@@ -3675,19 +3675,19 @@
         <v>36729</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25873</v>
+        <v>25571</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>51654</v>
+        <v>49260</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05591286962759268</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03938696745756372</v>
+        <v>0.03892725081701164</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07863413630902556</v>
+        <v>0.07498925787496363</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>59244</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47324</v>
+        <v>45873</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>74563</v>
+        <v>74854</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1700273864500363</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1358167861821263</v>
+        <v>0.1316525804896616</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2139917618623987</v>
+        <v>0.214827157112261</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>51</v>
@@ -3725,19 +3725,19 @@
         <v>53537</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41442</v>
+        <v>41784</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>67216</v>
+        <v>67498</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1735665425969843</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1343537275998039</v>
+        <v>0.1354630100511207</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2179129354788202</v>
+        <v>0.2188268687665564</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>105</v>
@@ -3746,19 +3746,19 @@
         <v>112781</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>93540</v>
+        <v>94376</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>134218</v>
+        <v>133350</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1716892505660645</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1423973259073039</v>
+        <v>0.1436705769583033</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2043232561014139</v>
+        <v>0.2030016651198736</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>118615</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>99706</v>
+        <v>100746</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>136829</v>
+        <v>136275</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3404205996014923</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2861526469360839</v>
+        <v>0.2891346714275636</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3926921834945946</v>
+        <v>0.3911032608635161</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>91</v>
@@ -3796,19 +3796,19 @@
         <v>91636</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>76844</v>
+        <v>77085</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>108972</v>
+        <v>108118</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2970818503991965</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2491260291632521</v>
+        <v>0.2499073980934596</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3532847519262543</v>
+        <v>0.350516857924098</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>200</v>
@@ -3817,19 +3817,19 @@
         <v>210251</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>185950</v>
+        <v>186492</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>234971</v>
+        <v>236165</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3200702366498741</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2830759760540412</v>
+        <v>0.2839008196445665</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3577021998020032</v>
+        <v>0.3595189745683254</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>142252</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>123155</v>
+        <v>123990</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>161244</v>
+        <v>162628</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.408256787940777</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3534491824275288</v>
+        <v>0.3558438517374083</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4627629718181209</v>
+        <v>0.4667344863298693</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>133</v>
@@ -3867,19 +3867,19 @@
         <v>139385</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>123015</v>
+        <v>120322</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>156406</v>
+        <v>155225</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4518848002885884</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3988139428611395</v>
+        <v>0.3900830384563638</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5070670680334629</v>
+        <v>0.5032383582836455</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>264</v>
@@ -3888,19 +3888,19 @@
         <v>281637</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>257157</v>
+        <v>255746</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>310723</v>
+        <v>307144</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4287429787625603</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3914753996602752</v>
+        <v>0.3893280339317526</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4730212372317644</v>
+        <v>0.4675721360547955</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>40899</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29738</v>
+        <v>29309</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55759</v>
+        <v>54786</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02894640553806249</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02104670370717623</v>
+        <v>0.0207434659688915</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03946285352014935</v>
+        <v>0.03877443174148951</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -4013,19 +4013,19 @@
         <v>36756</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26924</v>
+        <v>25139</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50117</v>
+        <v>50121</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03575018544595414</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02618741654116247</v>
+        <v>0.02445146571431927</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0487461021806519</v>
+        <v>0.04874976769194568</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>75</v>
@@ -4034,19 +4034,19 @@
         <v>77655</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60379</v>
+        <v>61742</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>96984</v>
+        <v>96181</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03181201596425921</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02473462689597286</v>
+        <v>0.02529291772643855</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03973035094805822</v>
+        <v>0.03940120967079127</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>74402</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>58880</v>
+        <v>57355</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>91981</v>
+        <v>92282</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05265732188014079</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0416719441122429</v>
+        <v>0.04059281288788617</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06509930145900153</v>
+        <v>0.06531195859475883</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>58</v>
@@ -4084,19 +4084,19 @@
         <v>58524</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>45677</v>
+        <v>45953</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>75759</v>
+        <v>75579</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05692255867051697</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04442726786873977</v>
+        <v>0.04469557864719502</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07368665957813028</v>
+        <v>0.07351132840742125</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>127</v>
@@ -4105,19 +4105,19 @@
         <v>132925</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>109485</v>
+        <v>111384</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>154956</v>
+        <v>155482</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05445375080379293</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04485127919570608</v>
+        <v>0.0456294302040128</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06347894260679988</v>
+        <v>0.0636942217108237</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>266448</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>236201</v>
+        <v>240356</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>296017</v>
+        <v>297325</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1885775353395685</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1671698425155429</v>
+        <v>0.1701110241253637</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2095042835876928</v>
+        <v>0.2104304749716601</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>168</v>
@@ -4155,19 +4155,19 @@
         <v>172513</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>149523</v>
+        <v>149887</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>197556</v>
+        <v>198084</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1677940906830101</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1454323562267217</v>
+        <v>0.1457862851827075</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1921516136273416</v>
+        <v>0.1926656516041832</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>418</v>
@@ -4176,19 +4176,19 @@
         <v>438962</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>403164</v>
+        <v>400583</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>477803</v>
+        <v>474287</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1798239812113645</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1651592222346626</v>
+        <v>0.1641020680998266</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1957358238195949</v>
+        <v>0.194295125260464</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>463126</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>429424</v>
+        <v>429278</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>499162</v>
+        <v>499678</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3277754204176437</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3039225948789911</v>
+        <v>0.3038193012783721</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3532796164823493</v>
+        <v>0.3536448375849664</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>307</v>
@@ -4226,19 +4226,19 @@
         <v>309634</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>280195</v>
+        <v>279249</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>341730</v>
+        <v>340728</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3011637340022488</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2725298945723486</v>
+        <v>0.2716098766254189</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3323820990311863</v>
+        <v>0.331407135636295</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>742</v>
@@ -4247,19 +4247,19 @@
         <v>772760</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>727482</v>
+        <v>728701</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>820389</v>
+        <v>822272</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3165671322185823</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2980186304363064</v>
+        <v>0.298518070757087</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3360784966476454</v>
+        <v>0.3368501261490357</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>568062</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>527429</v>
+        <v>531628</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>605741</v>
+        <v>605488</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4020433168245845</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.373285387660705</v>
+        <v>0.3762572601416077</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4287101374099364</v>
+        <v>0.4285311204544969</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>434</v>
@@ -4297,19 +4297,19 @@
         <v>450699</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>415709</v>
+        <v>421124</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>480187</v>
+        <v>486021</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4383694311982699</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4043368892069643</v>
+        <v>0.409603688384433</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4670513137990311</v>
+        <v>0.4727259871325612</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>956</v>
@@ -4318,19 +4318,19 @@
         <v>1018761</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>964146</v>
+        <v>967703</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1068755</v>
+        <v>1066295</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4173431198020011</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3949696438462219</v>
+        <v>0.3964268285386633</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4378237403680482</v>
+        <v>0.4368160106800349</v>
       </c>
     </row>
     <row r="27">
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5222</v>
+        <v>5194</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02763500068169163</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1277413779943075</v>
+        <v>0.1270641478652995</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5696</v>
+        <v>5584</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0177959788344714</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08973191143332199</v>
+        <v>0.08797718139720762</v>
       </c>
     </row>
     <row r="5">
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5676</v>
+        <v>5937</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02745992665821403</v>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1388579765007119</v>
+        <v>0.145248947156947</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -4748,16 +4748,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3449</v>
+        <v>3015</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.02802403103463476</v>
+        <v>0.02802403103463477</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.152607176856966</v>
+        <v>0.1334284170116942</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6331</v>
+        <v>5874</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02766076744514382</v>
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09973317436221048</v>
+        <v>0.0925440477419123</v>
       </c>
     </row>
     <row r="6">
@@ -4795,19 +4795,19 @@
         <v>6221</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13163</v>
+        <v>13715</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1521863568973431</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03912865079193916</v>
+        <v>0.03909137533661541</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3220235601165625</v>
+        <v>0.335533722664728</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -4816,19 +4816,19 @@
         <v>7460</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3981</v>
+        <v>3915</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11838</v>
+        <v>11692</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3300849007600455</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1761449709168333</v>
+        <v>0.1732344173470181</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5238112123197686</v>
+        <v>0.5173603365903819</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -4837,19 +4837,19 @@
         <v>13681</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7517</v>
+        <v>7516</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21863</v>
+        <v>21116</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2155244287799833</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1184269809422218</v>
+        <v>0.1184046519475865</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3444352107206553</v>
+        <v>0.3326637664056625</v>
       </c>
     </row>
     <row r="7">
@@ -4866,19 +4866,19 @@
         <v>11165</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6262</v>
+        <v>6023</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18997</v>
+        <v>18013</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2731311359115872</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1531929322556697</v>
+        <v>0.1473558766751565</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4647414565745482</v>
+        <v>0.4406641156201541</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4887,19 +4887,19 @@
         <v>5310</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2296</v>
+        <v>2456</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9474</v>
+        <v>9640</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2349354677756044</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1015894011087599</v>
+        <v>0.1086734347150803</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4192157922037051</v>
+        <v>0.4265362579052577</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -4908,19 +4908,19 @@
         <v>16474</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10072</v>
+        <v>10352</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24239</v>
+        <v>24275</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2595321489751373</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1586757507620644</v>
+        <v>0.1630909900421061</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3818554391276943</v>
+        <v>0.3824286248141291</v>
       </c>
     </row>
     <row r="8">
@@ -4937,19 +4937,19 @@
         <v>21239</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14328</v>
+        <v>13775</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29831</v>
+        <v>28638</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.519587579851164</v>
+        <v>0.5195875798511642</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3505130564741997</v>
+        <v>0.3369966588613956</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7297938262424121</v>
+        <v>0.7005970612988653</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -4958,19 +4958,19 @@
         <v>9197</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5210</v>
+        <v>5620</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13138</v>
+        <v>13257</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4069556004297152</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2305254536774943</v>
+        <v>0.2486748060029745</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5813304063745125</v>
+        <v>0.5866015498741</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -4979,19 +4979,19 @@
         <v>30436</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21819</v>
+        <v>22163</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38939</v>
+        <v>39846</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4794866759652642</v>
+        <v>0.4794866759652641</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3437386061961078</v>
+        <v>0.349149178713767</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6134386981536389</v>
+        <v>0.6277302969963287</v>
       </c>
     </row>
     <row r="9">
@@ -5083,19 +5083,19 @@
         <v>9586</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3450</v>
+        <v>4152</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19064</v>
+        <v>19457</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03246229171837075</v>
+        <v>0.03246229171837076</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01168400770648504</v>
+        <v>0.01406090893930229</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06455768096724179</v>
+        <v>0.06588943343719841</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -5104,19 +5104,19 @@
         <v>12431</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7658</v>
+        <v>6944</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21012</v>
+        <v>21234</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04938273493216365</v>
+        <v>0.04938273493216364</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03042100100751333</v>
+        <v>0.02758437133189277</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0834729397338259</v>
+        <v>0.084355518353597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -5125,19 +5125,19 @@
         <v>22017</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13586</v>
+        <v>14381</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33750</v>
+        <v>35679</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0402485769417848</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02483667074044597</v>
+        <v>0.02628968545176704</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06169745878262849</v>
+        <v>0.06522272380905746</v>
       </c>
     </row>
     <row r="11">
@@ -5154,19 +5154,19 @@
         <v>22326</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14624</v>
+        <v>14204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34913</v>
+        <v>34239</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07560291918345109</v>
+        <v>0.07560291918345111</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04952172247419763</v>
+        <v>0.04809975351426944</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1182292465329104</v>
+        <v>0.1159472337603017</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -5175,19 +5175,19 @@
         <v>7675</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3743</v>
+        <v>4031</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13743</v>
+        <v>13744</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03049032083966821</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01486763399679099</v>
+        <v>0.01601238091917073</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05459321483349019</v>
+        <v>0.05459990729178557</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>30</v>
@@ -5196,19 +5196,19 @@
         <v>30001</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20547</v>
+        <v>20795</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42952</v>
+        <v>43098</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05484344182013495</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03756158000057974</v>
+        <v>0.03801409532568683</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0785184635267878</v>
+        <v>0.07878590859590785</v>
       </c>
     </row>
     <row r="12">
@@ -5225,19 +5225,19 @@
         <v>57644</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42408</v>
+        <v>44673</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>75244</v>
+        <v>74928</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1952029601090419</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1436099318073276</v>
+        <v>0.1512800409774102</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2548020728886312</v>
+        <v>0.2537349508928893</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>55</v>
@@ -5246,19 +5246,19 @@
         <v>39701</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29469</v>
+        <v>30393</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50437</v>
+        <v>50426</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.1577164305930707</v>
+        <v>0.1577164305930706</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1170681264075943</v>
+        <v>0.1207376159259172</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2003631953798988</v>
+        <v>0.2003193625170893</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>105</v>
@@ -5267,19 +5267,19 @@
         <v>97345</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>81323</v>
+        <v>81718</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>116149</v>
+        <v>116237</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1779527730330112</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1486638404005615</v>
+        <v>0.1493850498671317</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2123271083907831</v>
+        <v>0.2124881918641023</v>
       </c>
     </row>
     <row r="13">
@@ -5296,19 +5296,19 @@
         <v>77013</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61261</v>
+        <v>60096</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97351</v>
+        <v>94575</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2607933264393388</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2074525021478173</v>
+        <v>0.2035069365959967</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3296658119355771</v>
+        <v>0.3202664765192627</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -5317,19 +5317,19 @@
         <v>68954</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56561</v>
+        <v>57222</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83177</v>
+        <v>83332</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2739252334405911</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2246919280682797</v>
+        <v>0.2273175302204442</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3304252638613369</v>
+        <v>0.33104320642062</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>148</v>
@@ -5338,19 +5338,19 @@
         <v>145967</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124525</v>
+        <v>127760</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167740</v>
+        <v>170124</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.266836239863483</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2276386917806835</v>
+        <v>0.2335527326453636</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.306638739863782</v>
+        <v>0.3109974814754956</v>
       </c>
     </row>
     <row r="14">
@@ -5367,19 +5367,19 @@
         <v>128734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108680</v>
+        <v>109195</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>150152</v>
+        <v>147917</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4359385025497975</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3680299550059235</v>
+        <v>0.3697743395489463</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5084690114855442</v>
+        <v>0.5009004474466516</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>156</v>
@@ -5388,19 +5388,19 @@
         <v>122964</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>108011</v>
+        <v>109184</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>137094</v>
+        <v>138209</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4884852801945065</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4290822909187728</v>
+        <v>0.4337415713112631</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5446142456784651</v>
+        <v>0.5490451513381229</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>260</v>
@@ -5409,19 +5409,19 @@
         <v>251698</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>228863</v>
+        <v>226273</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>277135</v>
+        <v>276206</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4601189683415863</v>
+        <v>0.4601189683415862</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4183746893199308</v>
+        <v>0.4136398753323986</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.506618825908782</v>
+        <v>0.5049205181567189</v>
       </c>
     </row>
     <row r="15">
@@ -5513,19 +5513,19 @@
         <v>17443</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9570</v>
+        <v>10054</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29723</v>
+        <v>28555</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1263164265038826</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0693028507447371</v>
+        <v>0.07280962461682666</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2152449950646477</v>
+        <v>0.2067872079704491</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -5534,19 +5534,19 @@
         <v>5156</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2209</v>
+        <v>2164</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10613</v>
+        <v>9883</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04492723747956549</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01924254885141901</v>
+        <v>0.01885624230246016</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09247279199418978</v>
+        <v>0.08610421065156741</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -5555,19 +5555,19 @@
         <v>22599</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13988</v>
+        <v>14193</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35968</v>
+        <v>35263</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08937387713852829</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05531765556059629</v>
+        <v>0.05613058181373076</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1422436339698875</v>
+        <v>0.1394553239244592</v>
       </c>
     </row>
     <row r="17">
@@ -5584,19 +5584,19 @@
         <v>5304</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1461</v>
+        <v>1259</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14028</v>
+        <v>14962</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0384073516520904</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01058201045532631</v>
+        <v>0.009119828146450697</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1015862557532617</v>
+        <v>0.1083492496061013</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -5605,19 +5605,19 @@
         <v>8552</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4529</v>
+        <v>4501</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16076</v>
+        <v>15968</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07451550937656541</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03946035073839296</v>
+        <v>0.03921700222498038</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1400653607629132</v>
+        <v>0.139123057552346</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -5626,19 +5626,19 @@
         <v>13856</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8169</v>
+        <v>7858</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24034</v>
+        <v>24025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05479684287591711</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03230750714263909</v>
+        <v>0.03107751720807556</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09504823692595883</v>
+        <v>0.09501309391859095</v>
       </c>
     </row>
     <row r="18">
@@ -5655,19 +5655,19 @@
         <v>25885</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17433</v>
+        <v>17586</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37439</v>
+        <v>37282</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1874539136788111</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1262440194886114</v>
+        <v>0.1273568417560438</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2711206130117993</v>
+        <v>0.2699841747980355</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>29</v>
@@ -5676,19 +5676,19 @@
         <v>21728</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15170</v>
+        <v>14584</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29665</v>
+        <v>29241</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1893097608285678</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1321757276506714</v>
+        <v>0.1270676627699623</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2584621771592365</v>
+        <v>0.2547686292513661</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>53</v>
@@ -5697,19 +5697,19 @@
         <v>47613</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>36581</v>
+        <v>36482</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>61433</v>
+        <v>60483</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.1882962826195307</v>
+        <v>0.1882962826195308</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.144666855162338</v>
+        <v>0.1442757113981671</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2429510761382717</v>
+        <v>0.2391955356974438</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         <v>29101</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19241</v>
+        <v>19022</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41197</v>
+        <v>39191</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2107422698847445</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1393368298621024</v>
+        <v>0.1377501375170279</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2983406229044697</v>
+        <v>0.2838087811964267</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -5747,19 +5747,19 @@
         <v>27019</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19077</v>
+        <v>19662</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35514</v>
+        <v>36135</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2354146528725739</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1662153586266578</v>
+        <v>0.1713063502882447</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3094212251872588</v>
+        <v>0.3148333383873301</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -5768,19 +5768,19 @@
         <v>56120</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43892</v>
+        <v>43621</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69541</v>
+        <v>68885</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2219410634519896</v>
+        <v>0.2219410634519897</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1735814832464891</v>
+        <v>0.1725110894745233</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2750149543519289</v>
+        <v>0.2724226174980672</v>
       </c>
     </row>
     <row r="20">
@@ -5797,19 +5797,19 @@
         <v>60356</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>47853</v>
+        <v>46310</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>76069</v>
+        <v>73475</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4370800382804713</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3465419165613118</v>
+        <v>0.3353634485144439</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5508762838812219</v>
+        <v>0.5320895819742422</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -5818,19 +5818,19 @@
         <v>52318</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>42404</v>
+        <v>42022</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>62449</v>
+        <v>61903</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4558328394427272</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3694527116825145</v>
+        <v>0.3661299359948523</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5441027512276458</v>
+        <v>0.539344171353298</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>107</v>
@@ -5839,19 +5839,19 @@
         <v>112673</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>96422</v>
+        <v>96809</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>130337</v>
+        <v>129964</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4455919339140342</v>
+        <v>0.4455919339140343</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3813232506223085</v>
+        <v>0.3828521597072398</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.515446071980712</v>
+        <v>0.5139704998550163</v>
       </c>
     </row>
     <row r="21">
@@ -5943,19 +5943,19 @@
         <v>28159</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18563</v>
+        <v>17804</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43014</v>
+        <v>42852</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05937290336012441</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03914141314434934</v>
+        <v>0.03754084703557567</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09069565556415222</v>
+        <v>0.09035512576900893</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -5964,19 +5964,19 @@
         <v>17587</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10867</v>
+        <v>11153</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26254</v>
+        <v>26240</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04520025643101441</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02792762959625171</v>
+        <v>0.02866465735229232</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06747420933252107</v>
+        <v>0.0674377234329528</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -5985,19 +5985,19 @@
         <v>45746</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>33039</v>
+        <v>33273</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>61877</v>
+        <v>61993</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05298560766318881</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03826750637122948</v>
+        <v>0.03853874350006983</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07166933789400572</v>
+        <v>0.07180351108866108</v>
       </c>
     </row>
     <row r="23">
@@ -6014,19 +6014,19 @@
         <v>28752</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>19349</v>
+        <v>18211</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>42402</v>
+        <v>41265</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06062366827154614</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04079840175131239</v>
+        <v>0.03839930092575246</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08940507226526821</v>
+        <v>0.08700853634326064</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>22</v>
@@ -6035,19 +6035,19 @@
         <v>16861</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10561</v>
+        <v>10424</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26076</v>
+        <v>24730</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.0433333197663259</v>
+        <v>0.04333331976632589</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.027143003354262</v>
+        <v>0.02679088506928975</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06701670270562506</v>
+        <v>0.06355745191656019</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>47</v>
@@ -6056,19 +6056,19 @@
         <v>45613</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>33857</v>
+        <v>33955</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>61181</v>
+        <v>60551</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05283129404827566</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03921540173100136</v>
+        <v>0.03932866910940154</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07086326768749242</v>
+        <v>0.07013419001454937</v>
       </c>
     </row>
     <row r="24">
@@ -6085,19 +6085,19 @@
         <v>89750</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>71328</v>
+        <v>72592</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>109235</v>
+        <v>110691</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1892392221481752</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1503972637362971</v>
+        <v>0.1530607513800412</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2303242893278197</v>
+        <v>0.2333938456142335</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>94</v>
@@ -6106,19 +6106,19 @@
         <v>68889</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>56963</v>
+        <v>55588</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>84341</v>
+        <v>83739</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1770470434019508</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.146396342873273</v>
+        <v>0.1428626872443986</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2167586541615323</v>
+        <v>0.2152113936282075</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>172</v>
@@ -6127,19 +6127,19 @@
         <v>158639</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>134026</v>
+        <v>137929</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>183402</v>
+        <v>185891</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1837444792655259</v>
+        <v>0.1837444792655258</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1552365403921934</v>
+        <v>0.1597573369843697</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.212426423124833</v>
+        <v>0.2153100621575792</v>
       </c>
     </row>
     <row r="25">
@@ -6156,19 +6156,19 @@
         <v>117278</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>98371</v>
+        <v>97853</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>139263</v>
+        <v>139655</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2472837811674216</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2074177866760375</v>
+        <v>0.2063258924565333</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2936384507660029</v>
+        <v>0.2944656413235844</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>130</v>
@@ -6177,19 +6177,19 @@
         <v>101283</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>86419</v>
+        <v>86241</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>117992</v>
+        <v>119530</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.260301062576084</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2221006870900531</v>
+        <v>0.2216428527007496</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3032450745050774</v>
+        <v>0.307196183618936</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>230</v>
@@ -6198,19 +6198,19 @@
         <v>218561</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>191728</v>
+        <v>194265</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>245564</v>
+        <v>246515</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2531503794072023</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2220707001302819</v>
+        <v>0.2250095305181814</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2844271352810521</v>
+        <v>0.2855285416794845</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6227,19 @@
         <v>210328</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>184524</v>
+        <v>187134</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>235382</v>
+        <v>237455</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4434804250527327</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3890726090449518</v>
+        <v>0.3945762825668528</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4963088111606203</v>
+        <v>0.5006795430681021</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>230</v>
@@ -6248,19 +6248,19 @@
         <v>184479</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>164921</v>
+        <v>167435</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>201826</v>
+        <v>204110</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.474118317824625</v>
+        <v>0.4741183178246249</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4238548369446662</v>
+        <v>0.4303141897079129</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5187015742181471</v>
+        <v>0.5245710167074042</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>394</v>
@@ -6269,19 +6269,19 @@
         <v>394807</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>363943</v>
+        <v>364183</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>426056</v>
+        <v>424675</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4572882396158074</v>
+        <v>0.4572882396158073</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4215403050889372</v>
+        <v>0.4218179059709521</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4934832436476401</v>
+        <v>0.491883238464075</v>
       </c>
     </row>
     <row r="27">
